--- a/Mentee_Data.xlsx
+++ b/Mentee_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csw066\OneDrive - Queen Mary, University of London\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Desktop/MyDocs/QMentoring_Algo/Mentor-Matching-Algo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_63DBD801FF46B05D92CEDE00E212264567DB0BA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2182054-49C6-D141-84E5-0D09AF919C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16700" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applied" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="896">
   <si>
     <t>Record Status</t>
   </si>
@@ -2749,6 +2749,9 @@
   </si>
   <si>
     <t>I'm currently the first generation in my family to go to university, being one of 2. My brother also studied at QMUL but with a different degree, physics, so he is not able to help or advise me in my career path. I've been very proactive with my time and have attended network sessions such as the Morgan Stanley technology event to grow my understanding of the industry.  While I am gaining vast knowledge, it is very overwhelming and I feel constantly behind. Currently, I am also applying for spring weeks and possible internships that open up, but I'm not expecting too much as while the information online is abundant I can't adapt it to myself.&lt;br /&gt;&lt;br /&gt;I feel that having a mentor will enable me to create more tailored CVs, Cover Letters and perform better in interviews. I hope that my efforts in breaking into the industry can be emphasised with the help of a mentor!</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2761,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010809]dd/mm/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3099,39 +3102,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="118.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="158.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="142.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="127.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="118.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="158.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="255.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="142.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="127.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3205,15 +3208,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>895</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>1000000</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
@@ -3269,7 +3276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -3277,7 +3284,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>1000001</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3333,7 +3342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -3341,7 +3350,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>1000002</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
@@ -3397,7 +3408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3405,7 +3416,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1000003</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
@@ -3461,7 +3474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3482,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>1000004</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
@@ -3525,7 +3540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3533,7 +3548,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>1000005</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3597,7 +3614,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>1000006</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3634,9 +3653,7 @@
       <c r="R8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
         <v>82</v>
       </c>
@@ -3653,7 +3670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3661,7 +3678,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1000007</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
@@ -3717,7 +3736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +3744,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1000008</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -3789,7 +3810,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1000009</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -3853,7 +3876,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1000010</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
@@ -3909,7 +3934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3917,7 +3942,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1000011</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3973,7 +4000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3981,7 +4008,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1000012</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
@@ -4037,7 +4066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -4045,7 +4074,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1000013</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
@@ -4101,7 +4132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4109,7 +4140,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1000014</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
@@ -4165,7 +4198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4173,7 +4206,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1000015</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
@@ -4229,7 +4264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -4237,7 +4272,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1000016</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
@@ -4293,7 +4330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -4301,7 +4338,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1000017</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>40</v>
       </c>
@@ -4357,7 +4396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -4365,7 +4404,9 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>1000018</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>25</v>
       </c>
@@ -4421,7 +4462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4429,7 +4470,9 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>1000019</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4485,7 +4528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4493,7 +4536,9 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1000020</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>40</v>
       </c>
@@ -4549,7 +4594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -4557,7 +4602,9 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1000021</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4613,7 +4660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -4621,7 +4668,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>1000022</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>40</v>
       </c>
@@ -4677,7 +4726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4685,7 +4734,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>1000023</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
@@ -4741,7 +4792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -4749,7 +4800,9 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1">
+        <v>1000024</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>40</v>
       </c>
@@ -4805,7 +4858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -4813,7 +4866,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1">
+        <v>1000025</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>25</v>
       </c>
@@ -4869,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -4877,7 +4932,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>1000026</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>40</v>
       </c>
@@ -4933,7 +4990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -4941,7 +4998,9 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1">
+        <v>1000027</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
@@ -4997,7 +5056,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -5005,7 +5064,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1">
+        <v>1000028</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
@@ -5061,7 +5122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -5069,7 +5130,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1">
+        <v>1000029</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
@@ -5125,7 +5188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -5133,7 +5196,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1">
+        <v>1000030</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
@@ -5189,7 +5254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -5197,7 +5262,9 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1">
+        <v>1000031</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>40</v>
       </c>
@@ -5253,7 +5320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +5328,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1">
+        <v>1000032</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>40</v>
       </c>
@@ -5317,7 +5386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +5394,9 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1">
+        <v>1000033</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
@@ -5381,7 +5452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -5389,7 +5460,9 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1">
+        <v>1000034</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>40</v>
       </c>
@@ -5445,7 +5518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -5453,7 +5526,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1">
+        <v>1000035</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>40</v>
       </c>
@@ -5509,7 +5584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -5517,7 +5592,9 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>1000036</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>40</v>
       </c>
@@ -5573,7 +5650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -5581,7 +5658,9 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1">
+        <v>1000037</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>25</v>
       </c>
@@ -5637,7 +5716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -5645,7 +5724,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>1000038</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>25</v>
       </c>
@@ -5701,7 +5782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5709,7 +5790,9 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1">
+        <v>1000039</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>25</v>
       </c>
@@ -5765,7 +5848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -5773,7 +5856,9 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <v>1000040</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>40</v>
       </c>
@@ -5829,7 +5914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -5837,7 +5922,9 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1">
+        <v>1000041</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>40</v>
       </c>
@@ -5893,7 +5980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -5901,7 +5988,9 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>1000042</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>25</v>
       </c>
@@ -5957,7 +6046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5965,7 +6054,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1">
+        <v>1000043</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>25</v>
       </c>
@@ -6021,7 +6112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -6029,7 +6120,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1">
+        <v>1000044</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>25</v>
       </c>
@@ -6085,7 +6178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -6093,7 +6186,9 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>1000045</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>40</v>
       </c>
@@ -6149,7 +6244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -6157,7 +6252,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1">
+        <v>1000046</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>40</v>
       </c>
@@ -6213,7 +6310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -6221,7 +6318,9 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1">
+        <v>1000047</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>40</v>
       </c>
@@ -6277,7 +6376,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -6285,7 +6384,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1">
+        <v>1000048</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>40</v>
       </c>
@@ -6341,7 +6442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -6349,7 +6450,9 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>1000049</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>40</v>
       </c>
@@ -6405,7 +6508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -6413,7 +6516,9 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <v>1000050</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>25</v>
       </c>
@@ -6469,7 +6574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -6477,7 +6582,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1">
+        <v>1000051</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>40</v>
       </c>
@@ -6533,7 +6640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6648,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1">
+        <v>1000052</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>25</v>
       </c>
@@ -6597,7 +6706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -6605,7 +6714,9 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <v>1000053</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>25</v>
       </c>
@@ -6661,7 +6772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -6669,7 +6780,9 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1">
+        <v>1000054</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>25</v>
       </c>
@@ -6725,7 +6838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +6846,9 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1">
+        <v>1000055</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>40</v>
       </c>
@@ -6789,7 +6904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -6797,7 +6912,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1">
+        <v>1000056</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
@@ -6853,7 +6970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -6861,7 +6978,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <v>1000057</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>25</v>
       </c>
@@ -6917,7 +7036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -6925,7 +7044,9 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1">
+        <v>1000058</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
@@ -6981,7 +7102,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -6989,7 +7110,9 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <v>1000059</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>40</v>
       </c>
@@ -7045,7 +7168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -7053,7 +7176,9 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1">
+        <v>1000060</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>25</v>
       </c>
@@ -7109,7 +7234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -7117,7 +7242,9 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1">
+        <v>1000061</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>40</v>
       </c>
@@ -7173,7 +7300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -7181,7 +7308,9 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1">
+        <v>1000062</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>25</v>
       </c>
@@ -7237,7 +7366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -7245,7 +7374,9 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1">
+        <v>1000063</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>25</v>
       </c>
@@ -7301,7 +7432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -7309,7 +7440,9 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1">
+        <v>1000064</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>25</v>
       </c>
@@ -7365,7 +7498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -7373,7 +7506,9 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1">
+        <v>1000065</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>40</v>
       </c>
@@ -7429,7 +7564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -7437,7 +7572,9 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1">
+        <v>1000066</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>40</v>
       </c>
@@ -7493,7 +7630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -7501,7 +7638,9 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="1">
+        <v>1000067</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>40</v>
       </c>
@@ -7557,7 +7696,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -7565,7 +7704,9 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1">
+        <v>1000068</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>40</v>
       </c>
@@ -7621,7 +7762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -7629,7 +7770,9 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1">
+        <v>1000069</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>40</v>
       </c>
@@ -7685,7 +7828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -7693,7 +7836,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1">
+        <v>1000070</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>40</v>
       </c>
@@ -7749,7 +7894,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -7757,7 +7902,9 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1">
+        <v>1000071</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>40</v>
       </c>
@@ -7813,7 +7960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -7821,7 +7968,9 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1">
+        <v>1000072</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>40</v>
       </c>
@@ -7877,7 +8026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -7885,7 +8034,9 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1">
+        <v>1000073</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>40</v>
       </c>
@@ -7941,7 +8092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -7949,7 +8100,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1">
+        <v>1000074</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>25</v>
       </c>
@@ -8005,7 +8158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -8013,7 +8166,9 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <v>1000075</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>40</v>
       </c>
@@ -8069,7 +8224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -8077,7 +8232,9 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1">
+        <v>1000076</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>40</v>
       </c>
@@ -8133,7 +8290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -8141,7 +8298,9 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1">
+        <v>1000077</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>40</v>
       </c>
@@ -8197,7 +8356,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -8205,7 +8364,9 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1">
+        <v>1000078</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>40</v>
       </c>
@@ -8261,7 +8422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -8269,7 +8430,9 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1">
+        <v>1000079</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>25</v>
       </c>
@@ -8325,7 +8488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -8333,7 +8496,9 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1">
+        <v>1000080</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>40</v>
       </c>
@@ -8389,7 +8554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -8397,7 +8562,9 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1">
+        <v>1000081</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>40</v>
       </c>
@@ -8453,7 +8620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
@@ -8461,7 +8628,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1">
+        <v>1000082</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>25</v>
       </c>
@@ -8517,7 +8686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -8525,7 +8694,9 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1">
+        <v>1000083</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>40</v>
       </c>
@@ -8581,7 +8752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -8589,7 +8760,9 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1">
+        <v>1000084</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>40</v>
       </c>
@@ -8645,7 +8818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>24</v>
       </c>
@@ -8653,7 +8826,9 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1">
+        <v>1000085</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>40</v>
       </c>
@@ -8709,7 +8884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
@@ -8717,7 +8892,9 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1">
+        <v>1000086</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>40</v>
       </c>
@@ -8773,7 +8950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -8781,7 +8958,9 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1">
+        <v>1000087</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>40</v>
       </c>
@@ -8837,7 +9016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>24</v>
       </c>
@@ -8845,7 +9024,9 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="1">
+        <v>1000088</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>40</v>
       </c>
@@ -8901,7 +9082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -8909,7 +9090,9 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="1">
+        <v>1000089</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>40</v>
       </c>
@@ -8965,7 +9148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>24</v>
       </c>
@@ -8973,7 +9156,9 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1">
+        <v>1000090</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>40</v>
       </c>
@@ -9029,7 +9214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>24</v>
       </c>
@@ -9037,7 +9222,9 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1">
+        <v>1000091</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>25</v>
       </c>
@@ -9093,7 +9280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>24</v>
       </c>
@@ -9101,7 +9288,9 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1">
+        <v>1000092</v>
+      </c>
       <c r="G94" s="1" t="s">
         <v>40</v>
       </c>
@@ -9157,7 +9346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>24</v>
       </c>
@@ -9165,7 +9354,9 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1">
+        <v>1000093</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>25</v>
       </c>
@@ -9221,7 +9412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>24</v>
       </c>
@@ -9229,7 +9420,9 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1">
+        <v>1000094</v>
+      </c>
       <c r="G96" s="1" t="s">
         <v>40</v>
       </c>
@@ -9285,7 +9478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>24</v>
       </c>
@@ -9293,7 +9486,9 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1">
+        <v>1000095</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>40</v>
       </c>
@@ -9349,7 +9544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -9357,7 +9552,9 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1">
+        <v>1000096</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>25</v>
       </c>
@@ -9413,7 +9610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>24</v>
       </c>
@@ -9421,7 +9618,9 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1">
+        <v>1000097</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>25</v>
       </c>
@@ -9477,7 +9676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>24</v>
       </c>
@@ -9485,7 +9684,9 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1">
+        <v>1000098</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>40</v>
       </c>
@@ -9541,7 +9742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>24</v>
       </c>
@@ -9549,7 +9750,9 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1">
+        <v>1000099</v>
+      </c>
       <c r="G101" s="1" t="s">
         <v>25</v>
       </c>
@@ -9605,7 +9808,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>24</v>
       </c>
@@ -9613,7 +9816,9 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1">
+        <v>1000100</v>
+      </c>
       <c r="G102" s="1" t="s">
         <v>40</v>
       </c>
@@ -9669,7 +9874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>24</v>
       </c>
@@ -9677,7 +9882,9 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1">
+        <v>1000101</v>
+      </c>
       <c r="G103" s="1" t="s">
         <v>25</v>
       </c>
@@ -9733,7 +9940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>24</v>
       </c>
@@ -9741,7 +9948,9 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1">
+        <v>1000102</v>
+      </c>
       <c r="G104" s="1" t="s">
         <v>25</v>
       </c>
@@ -9797,7 +10006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>24</v>
       </c>
@@ -9805,7 +10014,9 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1">
+        <v>1000103</v>
+      </c>
       <c r="G105" s="1" t="s">
         <v>40</v>
       </c>
@@ -9861,7 +10072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>24</v>
       </c>
@@ -9869,7 +10080,9 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1">
+        <v>1000104</v>
+      </c>
       <c r="G106" s="1" t="s">
         <v>40</v>
       </c>
@@ -9925,7 +10138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>24</v>
       </c>
@@ -9933,7 +10146,9 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1">
+        <v>1000105</v>
+      </c>
       <c r="G107" s="1" t="s">
         <v>25</v>
       </c>
@@ -9989,7 +10204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>24</v>
       </c>
@@ -9997,7 +10212,9 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1">
+        <v>1000106</v>
+      </c>
       <c r="G108" s="1" t="s">
         <v>40</v>
       </c>
@@ -10053,7 +10270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>24</v>
       </c>
@@ -10061,7 +10278,9 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1">
+        <v>1000107</v>
+      </c>
       <c r="G109" s="1" t="s">
         <v>40</v>
       </c>
@@ -10117,7 +10336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>24</v>
       </c>
@@ -10125,7 +10344,9 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="1">
+        <v>1000108</v>
+      </c>
       <c r="G110" s="1" t="s">
         <v>40</v>
       </c>
@@ -10181,7 +10402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>24</v>
       </c>
@@ -10189,7 +10410,9 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="1">
+        <v>1000109</v>
+      </c>
       <c r="G111" s="1" t="s">
         <v>25</v>
       </c>
@@ -10245,7 +10468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>24</v>
       </c>
@@ -10253,7 +10476,9 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1">
+        <v>1000110</v>
+      </c>
       <c r="G112" s="1" t="s">
         <v>25</v>
       </c>
@@ -10309,7 +10534,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>24</v>
       </c>
@@ -10317,7 +10542,9 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1">
+        <v>1000111</v>
+      </c>
       <c r="G113" s="1" t="s">
         <v>40</v>
       </c>
@@ -10373,7 +10600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>24</v>
       </c>
@@ -10381,7 +10608,9 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1">
+        <v>1000112</v>
+      </c>
       <c r="G114" s="1" t="s">
         <v>25</v>
       </c>
@@ -10437,7 +10666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -10445,7 +10674,9 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="1">
+        <v>1000113</v>
+      </c>
       <c r="G115" s="1" t="s">
         <v>40</v>
       </c>
@@ -10501,7 +10732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>24</v>
       </c>
@@ -10509,7 +10740,9 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="1">
+        <v>1000114</v>
+      </c>
       <c r="G116" s="1" t="s">
         <v>40</v>
       </c>
@@ -10565,7 +10798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>24</v>
       </c>
@@ -10573,7 +10806,9 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="F117" s="1">
+        <v>1000115</v>
+      </c>
       <c r="G117" s="1" t="s">
         <v>40</v>
       </c>
@@ -10629,7 +10864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
@@ -10637,7 +10872,9 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1">
+        <v>1000116</v>
+      </c>
       <c r="G118" s="1" t="s">
         <v>40</v>
       </c>
@@ -10693,7 +10930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10938,9 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1">
+        <v>1000117</v>
+      </c>
       <c r="G119" s="1" t="s">
         <v>25</v>
       </c>
@@ -10757,7 +10996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -10765,7 +11004,9 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1">
+        <v>1000118</v>
+      </c>
       <c r="G120" s="1" t="s">
         <v>40</v>
       </c>
@@ -10821,7 +11062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>24</v>
       </c>
@@ -10829,7 +11070,9 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1">
+        <v>1000119</v>
+      </c>
       <c r="G121" s="1" t="s">
         <v>25</v>
       </c>
@@ -10885,7 +11128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>24</v>
       </c>
@@ -10893,7 +11136,9 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1">
+        <v>1000120</v>
+      </c>
       <c r="G122" s="1" t="s">
         <v>40</v>
       </c>
@@ -10949,7 +11194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -10957,7 +11202,9 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1">
+        <v>1000121</v>
+      </c>
       <c r="G123" s="1" t="s">
         <v>40</v>
       </c>
@@ -11013,7 +11260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -11021,7 +11268,9 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1">
+        <v>1000122</v>
+      </c>
       <c r="G124" s="1" t="s">
         <v>25</v>
       </c>
@@ -11077,7 +11326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -11085,7 +11334,9 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1">
+        <v>1000123</v>
+      </c>
       <c r="G125" s="1" t="s">
         <v>25</v>
       </c>
@@ -11141,7 +11392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -11149,7 +11400,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1">
+        <v>1000124</v>
+      </c>
       <c r="G126" s="1" t="s">
         <v>40</v>
       </c>
@@ -11205,7 +11458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>24</v>
       </c>
@@ -11213,7 +11466,9 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1">
+        <v>1000125</v>
+      </c>
       <c r="G127" s="1" t="s">
         <v>25</v>
       </c>
@@ -11269,7 +11524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>24</v>
       </c>
@@ -11277,7 +11532,9 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="1">
+        <v>1000126</v>
+      </c>
       <c r="G128" s="1" t="s">
         <v>25</v>
       </c>
@@ -11333,7 +11590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>24</v>
       </c>
@@ -11341,7 +11598,9 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="1">
+        <v>1000127</v>
+      </c>
       <c r="G129" s="1" t="s">
         <v>25</v>
       </c>
@@ -11397,7 +11656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>24</v>
       </c>
@@ -11405,7 +11664,9 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="1">
+        <v>1000128</v>
+      </c>
       <c r="G130" s="1" t="s">
         <v>25</v>
       </c>
@@ -11461,7 +11722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>24</v>
       </c>
@@ -11469,7 +11730,9 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="1">
+        <v>1000129</v>
+      </c>
       <c r="G131" s="1" t="s">
         <v>40</v>
       </c>
@@ -11525,7 +11788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>24</v>
       </c>
@@ -11533,7 +11796,9 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1">
+        <v>1000130</v>
+      </c>
       <c r="G132" s="1" t="s">
         <v>40</v>
       </c>
@@ -11589,7 +11854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>24</v>
       </c>
@@ -11597,7 +11862,9 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1">
+        <v>1000131</v>
+      </c>
       <c r="G133" s="1" t="s">
         <v>25</v>
       </c>
@@ -11653,7 +11920,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>24</v>
       </c>
@@ -11661,7 +11928,9 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1">
+        <v>1000132</v>
+      </c>
       <c r="G134" s="1" t="s">
         <v>40</v>
       </c>
@@ -11717,7 +11986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -11725,7 +11994,9 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1">
+        <v>1000133</v>
+      </c>
       <c r="G135" s="1" t="s">
         <v>40</v>
       </c>
@@ -11781,7 +12052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>24</v>
       </c>
@@ -11789,7 +12060,9 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="1">
+        <v>1000134</v>
+      </c>
       <c r="G136" s="1" t="s">
         <v>40</v>
       </c>
@@ -11845,7 +12118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -11853,7 +12126,9 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1">
+        <v>1000135</v>
+      </c>
       <c r="G137" s="1" t="s">
         <v>40</v>
       </c>
@@ -11909,7 +12184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -11917,7 +12192,9 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="1">
+        <v>1000136</v>
+      </c>
       <c r="G138" s="1" t="s">
         <v>25</v>
       </c>
@@ -11973,7 +12250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>24</v>
       </c>
@@ -11981,7 +12258,9 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1">
+        <v>1000137</v>
+      </c>
       <c r="G139" s="1" t="s">
         <v>25</v>
       </c>
@@ -12037,7 +12316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>24</v>
       </c>
@@ -12045,7 +12324,9 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="1">
+        <v>1000138</v>
+      </c>
       <c r="G140" s="1" t="s">
         <v>40</v>
       </c>
@@ -12101,7 +12382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>24</v>
       </c>
@@ -12109,7 +12390,9 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="1">
+        <v>1000139</v>
+      </c>
       <c r="G141" s="1" t="s">
         <v>25</v>
       </c>
@@ -12165,7 +12448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>24</v>
       </c>
@@ -12173,7 +12456,9 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="1">
+        <v>1000140</v>
+      </c>
       <c r="G142" s="1" t="s">
         <v>40</v>
       </c>
@@ -12229,7 +12514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -12237,7 +12522,9 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="F143" s="1">
+        <v>1000141</v>
+      </c>
       <c r="G143" s="1" t="s">
         <v>25</v>
       </c>
@@ -12293,7 +12580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>24</v>
       </c>
@@ -12301,7 +12588,9 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1">
+        <v>1000142</v>
+      </c>
       <c r="G144" s="1" t="s">
         <v>40</v>
       </c>
@@ -12357,7 +12646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>24</v>
       </c>
@@ -12365,7 +12654,9 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="1">
+        <v>1000143</v>
+      </c>
       <c r="G145" s="1" t="s">
         <v>25</v>
       </c>
@@ -12421,7 +12712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -12429,7 +12720,9 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1">
+        <v>1000144</v>
+      </c>
       <c r="G146" s="1" t="s">
         <v>40</v>
       </c>
@@ -12485,7 +12778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>24</v>
       </c>
@@ -12493,7 +12786,9 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="1">
+        <v>1000145</v>
+      </c>
       <c r="G147" s="1" t="s">
         <v>25</v>
       </c>
@@ -12549,7 +12844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>24</v>
       </c>
@@ -12557,7 +12852,9 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="1">
+        <v>1000146</v>
+      </c>
       <c r="G148" s="1" t="s">
         <v>40</v>
       </c>
@@ -12613,7 +12910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>24</v>
       </c>
@@ -12621,7 +12918,9 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="1">
+        <v>1000147</v>
+      </c>
       <c r="G149" s="1" t="s">
         <v>25</v>
       </c>
@@ -12677,7 +12976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>24</v>
       </c>
@@ -12685,7 +12984,9 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="1">
+        <v>1000148</v>
+      </c>
       <c r="G150" s="1" t="s">
         <v>40</v>
       </c>
@@ -12741,7 +13042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>24</v>
       </c>
@@ -12749,7 +13050,9 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="1">
+        <v>1000149</v>
+      </c>
       <c r="G151" s="1" t="s">
         <v>40</v>
       </c>
@@ -12805,7 +13108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>24</v>
       </c>
@@ -12813,7 +13116,9 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="1">
+        <v>1000150</v>
+      </c>
       <c r="G152" s="1" t="s">
         <v>25</v>
       </c>
@@ -12869,7 +13174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>24</v>
       </c>
@@ -12877,7 +13182,9 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1">
+        <v>1000151</v>
+      </c>
       <c r="G153" s="1" t="s">
         <v>25</v>
       </c>
@@ -12933,7 +13240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>24</v>
       </c>
@@ -12941,7 +13248,9 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="1">
+        <v>1000152</v>
+      </c>
       <c r="G154" s="1" t="s">
         <v>40</v>
       </c>
@@ -12997,7 +13306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>24</v>
       </c>
@@ -13005,7 +13314,9 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="1">
+        <v>1000153</v>
+      </c>
       <c r="G155" s="1" t="s">
         <v>25</v>
       </c>
@@ -13061,7 +13372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>24</v>
       </c>
@@ -13069,7 +13380,9 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="1">
+        <v>1000154</v>
+      </c>
       <c r="G156" s="1" t="s">
         <v>25</v>
       </c>
@@ -13125,7 +13438,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>24</v>
       </c>
@@ -13133,7 +13446,9 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="1">
+        <v>1000155</v>
+      </c>
       <c r="G157" s="1" t="s">
         <v>40</v>
       </c>
@@ -13189,7 +13504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>24</v>
       </c>
@@ -13197,7 +13512,9 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="1">
+        <v>1000156</v>
+      </c>
       <c r="G158" s="1" t="s">
         <v>40</v>
       </c>
@@ -13253,7 +13570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>24</v>
       </c>
@@ -13261,7 +13578,9 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="1">
+        <v>1000157</v>
+      </c>
       <c r="G159" s="1" t="s">
         <v>40</v>
       </c>
@@ -13317,7 +13636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>24</v>
       </c>
@@ -13325,7 +13644,9 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="1">
+        <v>1000158</v>
+      </c>
       <c r="G160" s="1" t="s">
         <v>40</v>
       </c>
@@ -13381,7 +13702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>24</v>
       </c>
@@ -13389,7 +13710,9 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="1">
+        <v>1000159</v>
+      </c>
       <c r="G161" s="1" t="s">
         <v>40</v>
       </c>
@@ -13445,7 +13768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>24</v>
       </c>
@@ -13453,7 +13776,9 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="1">
+        <v>1000160</v>
+      </c>
       <c r="G162" s="1" t="s">
         <v>40</v>
       </c>
@@ -13509,7 +13834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>24</v>
       </c>
@@ -13517,7 +13842,9 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="1">
+        <v>1000161</v>
+      </c>
       <c r="G163" s="1" t="s">
         <v>25</v>
       </c>
@@ -13573,7 +13900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>24</v>
       </c>
@@ -13581,7 +13908,9 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="F164" s="1">
+        <v>1000162</v>
+      </c>
       <c r="G164" s="1" t="s">
         <v>40</v>
       </c>
@@ -13637,7 +13966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>24</v>
       </c>
@@ -13645,7 +13974,9 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="F165" s="1">
+        <v>1000163</v>
+      </c>
       <c r="G165" s="1" t="s">
         <v>40</v>
       </c>
@@ -13701,7 +14032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>24</v>
       </c>
@@ -13709,7 +14040,9 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="F166" s="1">
+        <v>1000164</v>
+      </c>
       <c r="G166" s="1" t="s">
         <v>25</v>
       </c>
@@ -13765,7 +14098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>24</v>
       </c>
@@ -13773,7 +14106,9 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="1">
+        <v>1000165</v>
+      </c>
       <c r="G167" s="1" t="s">
         <v>40</v>
       </c>
@@ -13829,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>24</v>
       </c>
@@ -13837,7 +14172,9 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="1">
+        <v>1000166</v>
+      </c>
       <c r="G168" s="1" t="s">
         <v>25</v>
       </c>
@@ -13893,7 +14230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>24</v>
       </c>
@@ -13901,7 +14238,9 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="1">
+        <v>1000167</v>
+      </c>
       <c r="G169" s="1" t="s">
         <v>25</v>
       </c>
@@ -13957,7 +14296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>24</v>
       </c>
@@ -13965,7 +14304,9 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="1">
+        <v>1000168</v>
+      </c>
       <c r="G170" s="1" t="s">
         <v>40</v>
       </c>
@@ -14021,7 +14362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -14029,7 +14370,9 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="1">
+        <v>1000169</v>
+      </c>
       <c r="G171" s="1" t="s">
         <v>40</v>
       </c>
@@ -14085,7 +14428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>24</v>
       </c>
@@ -14093,7 +14436,9 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="1">
+        <v>1000170</v>
+      </c>
       <c r="G172" s="1" t="s">
         <v>40</v>
       </c>
@@ -14149,7 +14494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>24</v>
       </c>
@@ -14157,7 +14502,9 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="1">
+        <v>1000171</v>
+      </c>
       <c r="G173" s="1" t="s">
         <v>40</v>
       </c>
@@ -14213,7 +14560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>24</v>
       </c>
@@ -14221,7 +14568,9 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="1">
+        <v>1000172</v>
+      </c>
       <c r="G174" s="1" t="s">
         <v>40</v>
       </c>
@@ -14277,7 +14626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>24</v>
       </c>
@@ -14285,7 +14634,9 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="F175" s="1">
+        <v>1000173</v>
+      </c>
       <c r="G175" s="1" t="s">
         <v>40</v>
       </c>
@@ -14341,7 +14692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>24</v>
       </c>
@@ -14349,7 +14700,9 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="1">
+        <v>1000174</v>
+      </c>
       <c r="G176" s="1" t="s">
         <v>25</v>
       </c>
@@ -14405,7 +14758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>24</v>
       </c>
@@ -14413,7 +14766,9 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="F177" s="1">
+        <v>1000175</v>
+      </c>
       <c r="G177" s="1" t="s">
         <v>25</v>
       </c>
@@ -14469,7 +14824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>24</v>
       </c>
@@ -14477,7 +14832,9 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="F178" s="1">
+        <v>1000176</v>
+      </c>
       <c r="G178" s="1" t="s">
         <v>25</v>
       </c>
@@ -14533,7 +14890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>24</v>
       </c>
@@ -14541,7 +14898,9 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="F179" s="1">
+        <v>1000177</v>
+      </c>
       <c r="G179" s="1" t="s">
         <v>40</v>
       </c>
@@ -14597,7 +14956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -14605,7 +14964,9 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="1">
+        <v>1000178</v>
+      </c>
       <c r="G180" s="1" t="s">
         <v>25</v>
       </c>
@@ -14661,7 +15022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
@@ -14669,7 +15030,9 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="F181" s="1">
+        <v>1000179</v>
+      </c>
       <c r="G181" s="1" t="s">
         <v>40</v>
       </c>
@@ -14725,7 +15088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>24</v>
       </c>
@@ -14733,7 +15096,9 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="F182" s="1">
+        <v>1000180</v>
+      </c>
       <c r="G182" s="1" t="s">
         <v>25</v>
       </c>
@@ -14789,7 +15154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>24</v>
       </c>
@@ -14797,7 +15162,9 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="F183" s="1">
+        <v>1000181</v>
+      </c>
       <c r="G183" s="1" t="s">
         <v>40</v>
       </c>
@@ -14853,7 +15220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>24</v>
       </c>
@@ -14861,7 +15228,9 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="F184" s="1">
+        <v>1000182</v>
+      </c>
       <c r="G184" s="1" t="s">
         <v>25</v>
       </c>
@@ -14917,7 +15286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>24</v>
       </c>
@@ -14925,7 +15294,9 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="F185" s="1">
+        <v>1000183</v>
+      </c>
       <c r="G185" s="1" t="s">
         <v>40</v>
       </c>
@@ -14981,7 +15352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>24</v>
       </c>
@@ -14989,7 +15360,9 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="F186" s="1">
+        <v>1000184</v>
+      </c>
       <c r="G186" s="1" t="s">
         <v>40</v>
       </c>
@@ -15045,7 +15418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
@@ -15053,7 +15426,9 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="F187" s="1">
+        <v>1000185</v>
+      </c>
       <c r="G187" s="1" t="s">
         <v>25</v>
       </c>
@@ -15109,7 +15484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>24</v>
       </c>
@@ -15117,7 +15492,9 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="F188" s="1">
+        <v>1000186</v>
+      </c>
       <c r="G188" s="1" t="s">
         <v>25</v>
       </c>
@@ -15173,7 +15550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>24</v>
       </c>
@@ -15181,7 +15558,9 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="F189" s="1">
+        <v>1000187</v>
+      </c>
       <c r="G189" s="1" t="s">
         <v>25</v>
       </c>
@@ -15237,7 +15616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>24</v>
       </c>
@@ -15245,7 +15624,9 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="F190" s="1">
+        <v>1000188</v>
+      </c>
       <c r="G190" s="1" t="s">
         <v>25</v>
       </c>
@@ -15301,7 +15682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>24</v>
       </c>
@@ -15309,7 +15690,9 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="1">
+        <v>1000189</v>
+      </c>
       <c r="G191" s="1" t="s">
         <v>40</v>
       </c>
@@ -15365,7 +15748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>24</v>
       </c>
@@ -15373,7 +15756,9 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="F192" s="1">
+        <v>1000190</v>
+      </c>
       <c r="G192" s="1" t="s">
         <v>40</v>
       </c>
@@ -15429,7 +15814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
@@ -15437,7 +15822,9 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="F193" s="1">
+        <v>1000191</v>
+      </c>
       <c r="G193" s="1" t="s">
         <v>40</v>
       </c>
@@ -15493,7 +15880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
@@ -15501,7 +15888,9 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="F194" s="1">
+        <v>1000192</v>
+      </c>
       <c r="G194" s="1" t="s">
         <v>40</v>
       </c>
@@ -15557,7 +15946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>24</v>
       </c>
@@ -15565,7 +15954,9 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="F195" s="1">
+        <v>1000193</v>
+      </c>
       <c r="G195" s="1" t="s">
         <v>40</v>
       </c>
@@ -15621,7 +16012,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>24</v>
       </c>
@@ -15629,7 +16020,9 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="F196" s="1">
+        <v>1000194</v>
+      </c>
       <c r="G196" s="1" t="s">
         <v>40</v>
       </c>
@@ -15685,7 +16078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>24</v>
       </c>
@@ -15693,7 +16086,9 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="F197" s="1">
+        <v>1000195</v>
+      </c>
       <c r="G197" s="1" t="s">
         <v>40</v>
       </c>
@@ -15749,7 +16144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>24</v>
       </c>
@@ -15757,7 +16152,9 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="F198" s="1">
+        <v>1000196</v>
+      </c>
       <c r="G198" s="1" t="s">
         <v>25</v>
       </c>
@@ -15813,7 +16210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>24</v>
       </c>
@@ -15821,7 +16218,9 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="F199" s="1">
+        <v>1000197</v>
+      </c>
       <c r="G199" s="1" t="s">
         <v>25</v>
       </c>
@@ -15877,7 +16276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>24</v>
       </c>
@@ -15885,7 +16284,9 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1">
+        <v>1000198</v>
+      </c>
       <c r="G200" s="1" t="s">
         <v>25</v>
       </c>
@@ -15941,7 +16342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>24</v>
       </c>
@@ -15949,7 +16350,9 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="F201" s="1">
+        <v>1000199</v>
+      </c>
       <c r="G201" s="1" t="s">
         <v>25</v>
       </c>
@@ -16005,7 +16408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>24</v>
       </c>
@@ -16013,7 +16416,9 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="F202" s="1">
+        <v>1000200</v>
+      </c>
       <c r="G202" s="1" t="s">
         <v>40</v>
       </c>
@@ -16069,7 +16474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>24</v>
       </c>
@@ -16077,7 +16482,9 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
+      <c r="F203" s="1">
+        <v>1000201</v>
+      </c>
       <c r="G203" s="1" t="s">
         <v>40</v>
       </c>
@@ -16133,7 +16540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>24</v>
       </c>
@@ -16141,7 +16548,9 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
+      <c r="F204" s="1">
+        <v>1000202</v>
+      </c>
       <c r="G204" s="1" t="s">
         <v>25</v>
       </c>
@@ -16197,7 +16606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>24</v>
       </c>
@@ -16205,7 +16614,9 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="F205" s="1">
+        <v>1000203</v>
+      </c>
       <c r="G205" s="1" t="s">
         <v>25</v>
       </c>
@@ -16261,7 +16672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>24</v>
       </c>
@@ -16269,7 +16680,9 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1">
+        <v>1000204</v>
+      </c>
       <c r="G206" s="1" t="s">
         <v>40</v>
       </c>
@@ -16325,7 +16738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>24</v>
       </c>
@@ -16333,7 +16746,9 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
+      <c r="F207" s="1">
+        <v>1000205</v>
+      </c>
       <c r="G207" s="1" t="s">
         <v>40</v>
       </c>
@@ -16389,7 +16804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -16397,7 +16812,9 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="F208" s="1">
+        <v>1000206</v>
+      </c>
       <c r="G208" s="1" t="s">
         <v>25</v>
       </c>
@@ -16453,7 +16870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>24</v>
       </c>
@@ -16461,7 +16878,9 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="F209" s="1">
+        <v>1000207</v>
+      </c>
       <c r="G209" s="1" t="s">
         <v>25</v>
       </c>
@@ -16517,7 +16936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>24</v>
       </c>
@@ -16525,7 +16944,9 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="F210" s="1">
+        <v>1000208</v>
+      </c>
       <c r="G210" s="1" t="s">
         <v>40</v>
       </c>
@@ -16581,7 +17002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>24</v>
       </c>
@@ -16589,7 +17010,9 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="1">
+        <v>1000209</v>
+      </c>
       <c r="G211" s="1" t="s">
         <v>40</v>
       </c>
@@ -16645,7 +17068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>24</v>
       </c>
@@ -16653,7 +17076,9 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="F212" s="1">
+        <v>1000210</v>
+      </c>
       <c r="G212" s="1" t="s">
         <v>25</v>
       </c>
@@ -16709,7 +17134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>24</v>
       </c>
@@ -16717,7 +17142,9 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+      <c r="F213" s="1">
+        <v>1000211</v>
+      </c>
       <c r="G213" s="1" t="s">
         <v>25</v>
       </c>
@@ -16773,7 +17200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:24">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>24</v>
       </c>
@@ -16781,7 +17208,9 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="F214" s="1">
+        <v>1000212</v>
+      </c>
       <c r="G214" s="1" t="s">
         <v>25</v>
       </c>
@@ -16837,7 +17266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>24</v>
       </c>
@@ -16845,7 +17274,9 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="F215" s="1">
+        <v>1000213</v>
+      </c>
       <c r="G215" s="1" t="s">
         <v>25</v>
       </c>
@@ -16901,7 +17332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>24</v>
       </c>
@@ -16909,7 +17340,9 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
+      <c r="F216" s="1">
+        <v>1000214</v>
+      </c>
       <c r="G216" s="1" t="s">
         <v>40</v>
       </c>
@@ -16965,7 +17398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:24">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>24</v>
       </c>
@@ -16973,7 +17406,9 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="F217" s="1">
+        <v>1000215</v>
+      </c>
       <c r="G217" s="1" t="s">
         <v>40</v>
       </c>
@@ -17029,7 +17464,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:24">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>24</v>
       </c>
@@ -17037,7 +17472,9 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
+      <c r="F218" s="1">
+        <v>1000216</v>
+      </c>
       <c r="G218" s="1" t="s">
         <v>40</v>
       </c>
@@ -17093,7 +17530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:24">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>24</v>
       </c>
@@ -17101,7 +17538,9 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="F219" s="1">
+        <v>1000217</v>
+      </c>
       <c r="G219" s="1" t="s">
         <v>40</v>
       </c>
@@ -17157,7 +17596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:24">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>24</v>
       </c>
@@ -17165,7 +17604,9 @@
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
+      <c r="F220" s="1">
+        <v>1000218</v>
+      </c>
       <c r="G220" s="1" t="s">
         <v>40</v>
       </c>
@@ -17221,7 +17662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:24">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>24</v>
       </c>
@@ -17229,7 +17670,9 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+      <c r="F221" s="1">
+        <v>1000219</v>
+      </c>
       <c r="G221" s="1" t="s">
         <v>25</v>
       </c>
@@ -17285,7 +17728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:24">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>24</v>
       </c>
@@ -17293,7 +17736,9 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
+      <c r="F222" s="1">
+        <v>1000220</v>
+      </c>
       <c r="G222" s="1" t="s">
         <v>40</v>
       </c>
@@ -17349,7 +17794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:24">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>24</v>
       </c>
@@ -17357,7 +17802,9 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="F223" s="1">
+        <v>1000221</v>
+      </c>
       <c r="G223" s="1" t="s">
         <v>40</v>
       </c>
@@ -17413,7 +17860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:24">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>24</v>
       </c>
@@ -17421,7 +17868,9 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="F224" s="1">
+        <v>1000222</v>
+      </c>
       <c r="G224" s="1" t="s">
         <v>40</v>
       </c>
@@ -17477,7 +17926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>24</v>
       </c>
@@ -17485,7 +17934,9 @@
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="F225" s="1">
+        <v>1000223</v>
+      </c>
       <c r="G225" s="1" t="s">
         <v>40</v>
       </c>
@@ -17541,7 +17992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>24</v>
       </c>
@@ -17549,7 +18000,9 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="F226" s="1">
+        <v>1000224</v>
+      </c>
       <c r="G226" s="1" t="s">
         <v>40</v>
       </c>
@@ -17605,7 +18058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>24</v>
       </c>
@@ -17613,7 +18066,9 @@
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="F227" s="1">
+        <v>1000225</v>
+      </c>
       <c r="G227" s="1" t="s">
         <v>40</v>
       </c>
@@ -17669,7 +18124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
@@ -17677,7 +18132,9 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="F228" s="1">
+        <v>1000226</v>
+      </c>
       <c r="G228" s="1" t="s">
         <v>40</v>
       </c>
@@ -17733,7 +18190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>24</v>
       </c>
@@ -17741,7 +18198,9 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
+      <c r="F229" s="1">
+        <v>1000227</v>
+      </c>
       <c r="G229" s="1" t="s">
         <v>25</v>
       </c>
@@ -17797,7 +18256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>24</v>
       </c>
@@ -17805,7 +18264,9 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
+      <c r="F230" s="1">
+        <v>1000228</v>
+      </c>
       <c r="G230" s="1" t="s">
         <v>25</v>
       </c>
@@ -17861,7 +18322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>24</v>
       </c>
@@ -17869,7 +18330,9 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
+      <c r="F231" s="1">
+        <v>1000229</v>
+      </c>
       <c r="G231" s="1" t="s">
         <v>40</v>
       </c>
@@ -17925,7 +18388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>24</v>
       </c>
@@ -17933,7 +18396,9 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="F232" s="1">
+        <v>1000230</v>
+      </c>
       <c r="G232" s="1" t="s">
         <v>40</v>
       </c>
@@ -17989,7 +18454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>24</v>
       </c>
@@ -17997,7 +18462,9 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="F233" s="1">
+        <v>1000231</v>
+      </c>
       <c r="G233" s="1" t="s">
         <v>25</v>
       </c>
@@ -18053,7 +18520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>24</v>
       </c>
@@ -18061,7 +18528,9 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="F234" s="1">
+        <v>1000232</v>
+      </c>
       <c r="G234" s="1" t="s">
         <v>40</v>
       </c>
@@ -18117,7 +18586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>24</v>
       </c>
@@ -18125,7 +18594,9 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
+      <c r="F235" s="1">
+        <v>1000233</v>
+      </c>
       <c r="G235" s="1" t="s">
         <v>40</v>
       </c>
@@ -18181,7 +18652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>24</v>
       </c>
@@ -18189,7 +18660,9 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
+      <c r="F236" s="1">
+        <v>1000234</v>
+      </c>
       <c r="G236" s="1" t="s">
         <v>25</v>
       </c>
@@ -18245,7 +18718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>24</v>
       </c>
@@ -18253,7 +18726,9 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
+      <c r="F237" s="1">
+        <v>1000235</v>
+      </c>
       <c r="G237" s="1" t="s">
         <v>25</v>
       </c>
@@ -18309,7 +18784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>24</v>
       </c>
@@ -18317,7 +18792,9 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
+      <c r="F238" s="1">
+        <v>1000236</v>
+      </c>
       <c r="G238" s="1" t="s">
         <v>25</v>
       </c>
@@ -18373,7 +18850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>24</v>
       </c>
@@ -18381,7 +18858,9 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
+      <c r="F239" s="1">
+        <v>1000237</v>
+      </c>
       <c r="G239" s="1" t="s">
         <v>40</v>
       </c>
@@ -18437,7 +18916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>24</v>
       </c>
@@ -18445,7 +18924,9 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
+      <c r="F240" s="1">
+        <v>1000238</v>
+      </c>
       <c r="G240" s="1" t="s">
         <v>40</v>
       </c>
@@ -18501,7 +18982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>24</v>
       </c>
@@ -18509,7 +18990,9 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
+      <c r="F241" s="1">
+        <v>1000239</v>
+      </c>
       <c r="G241" s="1" t="s">
         <v>25</v>
       </c>
@@ -18565,7 +19048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>24</v>
       </c>
@@ -18573,7 +19056,9 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
+      <c r="F242" s="1">
+        <v>1000240</v>
+      </c>
       <c r="G242" s="1" t="s">
         <v>25</v>
       </c>
@@ -18629,7 +19114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>24</v>
       </c>
@@ -18637,7 +19122,9 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
+      <c r="F243" s="1">
+        <v>1000241</v>
+      </c>
       <c r="G243" s="1" t="s">
         <v>25</v>
       </c>
@@ -18693,7 +19180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>24</v>
       </c>
@@ -18701,7 +19188,9 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
+      <c r="F244" s="1">
+        <v>1000242</v>
+      </c>
       <c r="G244" s="1" t="s">
         <v>40</v>
       </c>
@@ -18757,7 +19246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -18765,7 +19254,9 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
+      <c r="F245" s="1">
+        <v>1000243</v>
+      </c>
       <c r="G245" s="1" t="s">
         <v>40</v>
       </c>
@@ -18821,7 +19312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>24</v>
       </c>
@@ -18829,7 +19320,9 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
+      <c r="F246" s="1">
+        <v>1000244</v>
+      </c>
       <c r="G246" s="1" t="s">
         <v>25</v>
       </c>
@@ -18885,7 +19378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>24</v>
       </c>
@@ -18893,7 +19386,9 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
+      <c r="F247" s="1">
+        <v>1000245</v>
+      </c>
       <c r="G247" s="1" t="s">
         <v>40</v>
       </c>
@@ -18949,7 +19444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>24</v>
       </c>
@@ -18957,7 +19452,9 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
+      <c r="F248" s="1">
+        <v>1000246</v>
+      </c>
       <c r="G248" s="1" t="s">
         <v>25</v>
       </c>
@@ -19013,7 +19510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>24</v>
       </c>
@@ -19021,7 +19518,9 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
+      <c r="F249" s="1">
+        <v>1000247</v>
+      </c>
       <c r="G249" s="1" t="s">
         <v>25</v>
       </c>
@@ -19077,7 +19576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>24</v>
       </c>
@@ -19085,7 +19584,9 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
+      <c r="F250" s="1">
+        <v>1000248</v>
+      </c>
       <c r="G250" s="1" t="s">
         <v>25</v>
       </c>
@@ -19141,7 +19642,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>24</v>
       </c>
@@ -19149,7 +19650,9 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
+      <c r="F251" s="1">
+        <v>1000249</v>
+      </c>
       <c r="G251" s="1" t="s">
         <v>40</v>
       </c>
@@ -19205,7 +19708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>24</v>
       </c>
@@ -19213,7 +19716,9 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
+      <c r="F252" s="1">
+        <v>1000250</v>
+      </c>
       <c r="G252" s="1" t="s">
         <v>40</v>
       </c>
@@ -19269,7 +19774,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>24</v>
       </c>
@@ -19277,7 +19782,9 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
+      <c r="F253" s="1">
+        <v>1000251</v>
+      </c>
       <c r="G253" s="1" t="s">
         <v>40</v>
       </c>
@@ -19333,7 +19840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>24</v>
       </c>
@@ -19341,7 +19848,9 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
+      <c r="F254" s="1">
+        <v>1000252</v>
+      </c>
       <c r="G254" s="1" t="s">
         <v>40</v>
       </c>
@@ -19397,7 +19906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>24</v>
       </c>
@@ -19405,7 +19914,9 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
+      <c r="F255" s="1">
+        <v>1000253</v>
+      </c>
       <c r="G255" s="1" t="s">
         <v>40</v>
       </c>
@@ -19461,7 +19972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>24</v>
       </c>
@@ -19469,7 +19980,9 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
+      <c r="F256" s="1">
+        <v>1000254</v>
+      </c>
       <c r="G256" s="1" t="s">
         <v>40</v>
       </c>
@@ -19525,7 +20038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>24</v>
       </c>
@@ -19533,7 +20046,9 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
+      <c r="F257" s="1">
+        <v>1000255</v>
+      </c>
       <c r="G257" s="1" t="s">
         <v>40</v>
       </c>
@@ -19589,7 +20104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>24</v>
       </c>
@@ -19597,7 +20112,9 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
+      <c r="F258" s="1">
+        <v>1000256</v>
+      </c>
       <c r="G258" s="1" t="s">
         <v>25</v>
       </c>
@@ -19659,25 +20176,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005654ADC9F12924A98775CE4A71E31EA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="549651e92ced56e5a1de0cf17176f363">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5" xmlns:ns3="6649982f-b66b-4072-8006-4697fed55f9d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="137a0823a5661f7a32d06da009f93573" ns2:_="" ns3:_="">
     <xsd:import namespace="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5"/>
@@ -19908,14 +20406,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55572E11-6128-4237-BE04-7B5786AB5601}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{174AD05C-DDCA-459C-984E-3D2BCA53660D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5"/>
+    <ds:schemaRef ds:uri="6649982f-b66b-4072-8006-4697fed55f9d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF2CB874-70F1-4F18-B8D3-ABC927D28158}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF2CB874-70F1-4F18-B8D3-ABC927D28158}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{174AD05C-DDCA-459C-984E-3D2BCA53660D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55572E11-6128-4237-BE04-7B5786AB5601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="45ae7f3d-bcd0-4e4b-af93-f03a9fbb19b5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>